--- a/RGV410046/data/examples_data.xlsx
+++ b/RGV410046/data/examples_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\UFSC\aulas\classes\RGV410046\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A8B71-E3FA-45DC-9055-AE54EF1813D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C279DCF-E9DD-4FB7-BD18-1A23AFC6547A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="62">
   <si>
     <t>HIBRIDO</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>AIES_PLANT</t>
+  </si>
+  <si>
+    <t>104..849122</t>
   </si>
 </sst>
 </file>
@@ -2589,11 +2592,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7B0EFC-A728-4FE1-BB98-D8F5BA29F3DE}">
   <dimension ref="A1:J781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="H673" sqref="H673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6564,9 +6570,6 @@
       <c r="C125" t="s">
         <v>4</v>
       </c>
-      <c r="D125">
-        <v>2.98</v>
-      </c>
       <c r="E125">
         <v>1.76</v>
       </c>
@@ -6596,9 +6599,6 @@
       <c r="C126" t="s">
         <v>4</v>
       </c>
-      <c r="D126">
-        <v>3.07</v>
-      </c>
       <c r="E126">
         <v>1.51</v>
       </c>
@@ -10820,9 +10820,6 @@
       <c r="C258" t="s">
         <v>4</v>
       </c>
-      <c r="D258">
-        <v>2.84</v>
-      </c>
       <c r="E258">
         <v>1.45</v>
       </c>
@@ -10852,9 +10849,6 @@
       <c r="C259" t="s">
         <v>4</v>
       </c>
-      <c r="D259">
-        <v>2.95</v>
-      </c>
       <c r="E259">
         <v>1.42</v>
       </c>
@@ -10884,9 +10878,6 @@
       <c r="C260" t="s">
         <v>4</v>
       </c>
-      <c r="D260">
-        <v>2.81</v>
-      </c>
       <c r="E260">
         <v>1.55</v>
       </c>
@@ -12772,9 +12763,6 @@
       <c r="C319" t="s">
         <v>4</v>
       </c>
-      <c r="D319">
-        <v>1.99</v>
-      </c>
       <c r="E319">
         <v>0.83</v>
       </c>
@@ -12804,9 +12792,6 @@
       <c r="C320" t="s">
         <v>4</v>
       </c>
-      <c r="D320">
-        <v>2.31</v>
-      </c>
       <c r="E320">
         <v>1.1000000000000001</v>
       </c>
@@ -14757,7 +14742,7 @@
         <v>4</v>
       </c>
       <c r="D381">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="E381">
         <v>1.26</v>
@@ -15973,7 +15958,7 @@
         <v>8</v>
       </c>
       <c r="D419">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="E419">
         <v>1.25</v>
@@ -17285,7 +17270,7 @@
         <v>7</v>
       </c>
       <c r="D460">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="E460">
         <v>0.95</v>
@@ -20170,9 +20155,6 @@
       <c r="E550">
         <v>1</v>
       </c>
-      <c r="F550">
-        <v>12.1</v>
-      </c>
       <c r="G550">
         <v>45.11</v>
       </c>
@@ -20202,9 +20184,6 @@
       <c r="E551">
         <v>1.03</v>
       </c>
-      <c r="F551">
-        <v>11.3</v>
-      </c>
       <c r="G551">
         <v>47.76</v>
       </c>
@@ -20234,9 +20213,6 @@
       <c r="E552">
         <v>1.3</v>
       </c>
-      <c r="F552">
-        <v>13</v>
-      </c>
       <c r="G552">
         <v>49.59</v>
       </c>
@@ -20266,9 +20242,6 @@
       <c r="E553">
         <v>1.28</v>
       </c>
-      <c r="F553">
-        <v>17.3</v>
-      </c>
       <c r="G553">
         <v>46.84</v>
       </c>
@@ -24016,8 +23989,8 @@
       <c r="G670">
         <v>48.28</v>
       </c>
-      <c r="H670">
-        <v>104.84912199999999</v>
+      <c r="H670" t="s">
+        <v>61</v>
       </c>
       <c r="I670">
         <v>356.62966666666699</v>

--- a/RGV410046/data/examples_data.xlsx
+++ b/RGV410046/data/examples_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\UFSC\aulas\classes\RGV410046\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C279DCF-E9DD-4FB7-BD18-1A23AFC6547A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93748D02-0995-45BC-8E47-4C3755F2B46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="61">
   <si>
     <t>HIBRIDO</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>AIES_PLANT</t>
-  </si>
-  <si>
-    <t>104..849122</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1471,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,7 +1497,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1514,7 +1511,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>7</v>
@@ -1524,7 +1523,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>8</v>
@@ -1534,7 +1535,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1546,7 +1549,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>7</v>
@@ -1556,7 +1561,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>8</v>
@@ -1632,8 +1639,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A7"/>
+  <mergeCells count="5">
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
@@ -1934,7 +1940,7 @@
   <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7B0EFC-A728-4FE1-BB98-D8F5BA29F3DE}">
   <dimension ref="A1:J781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="H673" sqref="H673"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23989,8 +23995,8 @@
       <c r="G670">
         <v>48.28</v>
       </c>
-      <c r="H670" t="s">
-        <v>61</v>
+      <c r="H670">
+        <v>104.84912199999999</v>
       </c>
       <c r="I670">
         <v>356.62966666666699</v>

--- a/RGV410046/data/examples_data.xlsx
+++ b/RGV410046/data/examples_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\UFSC\aulas\classes\RGV410046\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2182DFF9-5713-4EE2-A640-EE52644D1E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA8C64-AFEE-482A-B9F5-86A4F9B9FC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df1" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="feijao_long" sheetId="11" r:id="rId8"/>
     <sheet name="messy" sheetId="5" r:id="rId9"/>
     <sheet name="maize" sheetId="10" r:id="rId10"/>
+    <sheet name="chicoria" sheetId="12" r:id="rId11"/>
+    <sheet name="cafe" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="86">
   <si>
     <t>HIBRIDO</t>
   </si>
@@ -229,12 +231,81 @@
   <si>
     <t>AP</t>
   </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>21DAP</t>
+  </si>
+  <si>
+    <t>50R</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>70R</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>28DAP</t>
+  </si>
+  <si>
+    <t>35DAP</t>
+  </si>
+  <si>
+    <t>grupo</t>
+  </si>
+  <si>
+    <t>individuo</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>comprimento</t>
+  </si>
+  <si>
+    <t>largura</t>
+  </si>
+  <si>
+    <t>Grupo 1</t>
+  </si>
+  <si>
+    <t>vermelho</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Grupo 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -255,6 +326,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,23 +366,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{983A64C7-929C-4774-93EB-5B493E1501DB}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{0E269225-5ACE-4302-8B25-0D87497F5325}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{C83944C4-C130-4ECB-A40E-AD47D688F760}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -25710,6 +25816,1488 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1BC7C5-6289-4400-875A-7CC847DDC880}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.3054500000000004</v>
+      </c>
+      <c r="E2" s="4">
+        <v>846.98384999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.24885</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1607.2771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.4986499999999996</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1320.0308500000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.6109499999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1566.6075499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.1178999999999997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1206.1421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.5217999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1863.11625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.2691999999999997</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1774.0291500000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.2625000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1307.2599499999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.2399500000000003</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1203.2936999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.6995500000000003</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1298.6271999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.7304500000000003</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1110.1564000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.3509500000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1265.78765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.5705999999999998</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3016.8854999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6.5639000000000003</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2723.6284999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6.1563999999999997</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2590.2910999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8.4304500000000004</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2929.7400499999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.0960999999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3804.1091999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8.0465999999999998</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3543.1405500000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7.6820000000000004</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2991.0481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8.0063499999999994</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2914.0295500000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4">
+        <v>11.7117</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3400.01305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4">
+        <v>11.4009</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3581.6527500000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7.26755</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1900.6995999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8.3606499999999997</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2644.4789500000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4">
+        <v>12.30785</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5016.42875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10.73315</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3648.3589000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10.8614</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3925.3332500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10.9785</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4705.2685000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4">
+        <v>15.751799999999999</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6118.4251000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4">
+        <v>13.30495</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5614.2330499999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="4">
+        <v>13.88435</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5109.9443499999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="4">
+        <v>13.09225</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4975.8569500000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="4">
+        <v>16.9224</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5464.5280000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4">
+        <v>14.93085</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5551.9511499999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="4">
+        <v>16.129000000000001</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5723.8487500000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="4">
+        <v>15.78145</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5869.6974499999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E73C928-54A8-4ABF-8D19-D3F4D5B25F8E}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="8">
+        <v>13.49</v>
+      </c>
+      <c r="E2" s="8">
+        <v>16.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="8">
+        <v>11.08</v>
+      </c>
+      <c r="E3" s="8">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="8">
+        <v>13.35</v>
+      </c>
+      <c r="E4" s="8">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E5" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11.61</v>
+      </c>
+      <c r="E6" s="8">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9.86</v>
+      </c>
+      <c r="E7" s="8">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="8">
+        <v>9.84</v>
+      </c>
+      <c r="E8" s="8">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10.72</v>
+      </c>
+      <c r="E9" s="8">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9.98</v>
+      </c>
+      <c r="E10" s="8">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10.28</v>
+      </c>
+      <c r="E11" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E12" s="8">
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9.59</v>
+      </c>
+      <c r="E13" s="8">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="8">
+        <v>15.89</v>
+      </c>
+      <c r="E14" s="8">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="8">
+        <v>14.68</v>
+      </c>
+      <c r="E15" s="8">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="8">
+        <v>13.6</v>
+      </c>
+      <c r="E16" s="8">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="8">
+        <v>11.39</v>
+      </c>
+      <c r="E17" s="8">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="8">
+        <v>14.27</v>
+      </c>
+      <c r="E18" s="8">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="8">
+        <v>15.02</v>
+      </c>
+      <c r="E19" s="8">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11.88</v>
+      </c>
+      <c r="E20" s="8">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="7">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="8">
+        <v>15.06</v>
+      </c>
+      <c r="E21" s="8">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="7">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="8">
+        <v>15.98</v>
+      </c>
+      <c r="E22" s="8">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="7">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="8">
+        <v>13.32</v>
+      </c>
+      <c r="E23" s="8">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="7">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="8">
+        <v>14.64</v>
+      </c>
+      <c r="E24" s="8">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="7">
+        <v>12</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="8">
+        <v>12.15</v>
+      </c>
+      <c r="E25" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="7">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8">
+        <v>15.59</v>
+      </c>
+      <c r="E26" s="8">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="7">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="E27" s="8">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="7">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8">
+        <v>12.04</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="7">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="8">
+        <v>10.95</v>
+      </c>
+      <c r="E29" s="8">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="7">
+        <v>17</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="8">
+        <v>12.88</v>
+      </c>
+      <c r="E30" s="8">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="7">
+        <v>18</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="8">
+        <v>11.86</v>
+      </c>
+      <c r="E31" s="8">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="7">
+        <v>19</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="8">
+        <v>14.02</v>
+      </c>
+      <c r="E32" s="8">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7">
+        <v>20</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="8">
+        <v>11.99</v>
+      </c>
+      <c r="E33" s="8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="7">
+        <v>21</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="8">
+        <v>12.77</v>
+      </c>
+      <c r="E34" s="8">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="7">
+        <v>22</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="8">
+        <v>12.47</v>
+      </c>
+      <c r="E35" s="8">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="7">
+        <v>23</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="E36" s="8">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="7">
+        <v>24</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="8">
+        <v>9.09</v>
+      </c>
+      <c r="E37" s="8">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="7">
+        <v>25</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="8">
+        <v>10.47</v>
+      </c>
+      <c r="E38" s="8">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="7">
+        <v>26</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="8">
+        <v>10.14</v>
+      </c>
+      <c r="E39" s="8">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="7">
+        <v>27</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="8">
+        <v>11.48</v>
+      </c>
+      <c r="E40" s="8">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="7">
+        <v>28</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="8">
+        <v>12.66</v>
+      </c>
+      <c r="E41" s="8">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="8">
+        <v>14</v>
+      </c>
+      <c r="E42" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="8">
+        <v>15</v>
+      </c>
+      <c r="E43" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="7">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="8">
+        <v>16</v>
+      </c>
+      <c r="E44" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="7">
+        <v>4</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="8">
+        <v>16</v>
+      </c>
+      <c r="E45" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="7">
+        <v>5</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="8">
+        <v>16</v>
+      </c>
+      <c r="E46" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="7">
+        <v>6</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="8">
+        <v>17</v>
+      </c>
+      <c r="E47" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="7">
+        <v>7</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="8">
+        <v>18</v>
+      </c>
+      <c r="E48" s="8">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
@@ -26445,8 +28033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02E01CA-E34A-4482-8B99-E300D9776731}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27768,7 +29356,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
@@ -27787,7 +29375,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -27804,7 +29392,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -27821,7 +29409,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -27838,7 +29426,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -27855,7 +29443,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -27872,7 +29460,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -27889,7 +29477,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -27906,7 +29494,7 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -27923,7 +29511,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
@@ -27940,7 +29528,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -27955,7 +29543,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -27970,7 +29558,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -27985,7 +29573,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -28000,7 +29588,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -28015,7 +29603,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -28030,7 +29618,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -28045,7 +29633,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -28060,7 +29648,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -28075,7 +29663,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -28090,7 +29678,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -28105,7 +29693,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>28</v>
       </c>
